--- a/Trakinas.xlsx
+++ b/Trakinas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(B2:B2301,"s")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -4377,7 +4377,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(B2:B2301,"s")</f>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4565,7 +4565,7 @@
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>334</v>
       </c>
       <c r="B35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
         <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
         <v>365</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5085,7 @@
         <v>377</v>
       </c>
       <c r="B81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
         <v>380</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>382</v>
       </c>
       <c r="B86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
         <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
